--- a/NoGracias/ScrumDocs/Logs.xlsx
+++ b/NoGracias/ScrumDocs/Logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\EECS_448\Project3\NoGracias\NoGracias\ScrumDogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\EECS_448\Project3\NoGracias\NoGracias\ScrumDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -94,15 +94,9 @@
     <t>As a client, I want to be able to enter the card game with my information</t>
   </si>
   <si>
-    <t>As a client, I want to actively be able to see my opponents cards and chips</t>
-  </si>
-  <si>
     <t>As a server I want to actively adjust game table elements to show true state</t>
   </si>
   <si>
-    <t>As a client, I want to be able to make a turn choice</t>
-  </si>
-  <si>
     <t>User Task</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>Turn Execution</t>
   </si>
   <si>
-    <t>Task Name</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
@@ -229,14 +220,164 @@
     <t>Take the Card table design and begin population of the User Interface</t>
   </si>
   <si>
-    <t>Full Design on png file in the folder</t>
+    <t>Card Table Animation</t>
+  </si>
+  <si>
+    <t>Graceful Exit</t>
+  </si>
+  <si>
+    <t>As a client, I want to be able to exit the program easily without background processes</t>
+  </si>
+  <si>
+    <t>Server Ready Ups</t>
+  </si>
+  <si>
+    <t>As a server, I want to now when connected clients are ready to play, and be able to relay that information to other users</t>
+  </si>
+  <si>
+    <t>Player Ready Ups</t>
+  </si>
+  <si>
+    <t>As a client, I want to be able to let the server know when I am ready to play, and see when my friends are ready to play</t>
+  </si>
+  <si>
+    <t>End of Game</t>
+  </si>
+  <si>
+    <t>As a client, at the end of the game, I want to be able to see my final score and see if I won</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>As a client, I want to have a fun game environment with complimentary sound</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>As a client, I want interactive gameplay that enhances my experience through simple card movement indicating turns being played</t>
+  </si>
+  <si>
+    <t>As a client, I want to actively be able to see my opponents cards and chips, and know who's turn it is</t>
+  </si>
+  <si>
+    <t>As a client, I want to be able to make a turn choice and have the correct execution occur</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
+  </si>
+  <si>
+    <t>As a client, I want to be able to see that all the game is working properly</t>
+  </si>
+  <si>
+    <t>Assign each variable to the pieces of pseudeocoded game logic</t>
+  </si>
+  <si>
+    <t>Implement each function using proper threading to prevent freezes and race conditions</t>
+  </si>
+  <si>
+    <t>Test Game Logic</t>
+  </si>
+  <si>
+    <t>Upon implementation, assure each move is possible upon the respective players turns</t>
+  </si>
+  <si>
+    <t>Check edge cases like when a player runs out of chips</t>
+  </si>
+  <si>
+    <t>Make notes of timing issues with messages and responses</t>
+  </si>
+  <si>
+    <t>Graceful Shutdow</t>
+  </si>
+  <si>
+    <t>Kaiser and Juzer</t>
+  </si>
+  <si>
+    <t>When the game comes to its completion, asssure that the user can exit out without persistant background processes.</t>
+  </si>
+  <si>
+    <t>Assure all threads are crashed when a player exits the application at any point in the game.</t>
+  </si>
+  <si>
+    <t>When one player exits the game, shut down the game for the rest of the players to indicate player gone.</t>
+  </si>
+  <si>
+    <t>When the server is shutdown, assure all the instances of the games are gracefully shutdown</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Upon a player selecting the accept button, find a way to make the card slide to his deck</t>
+  </si>
+  <si>
+    <t>Create a way for the card to slide to the exact location of the next card to be populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show the other players the slide of a player clicking select. </t>
+  </si>
+  <si>
+    <t>Sprint Name</t>
+  </si>
+  <si>
+    <t>Create the score sheet for the end of the game</t>
+  </si>
+  <si>
+    <t>Bug Sprint</t>
+  </si>
+  <si>
+    <t>All the Team</t>
+  </si>
+  <si>
+    <t>Look for bugs…everywhere</t>
+  </si>
+  <si>
+    <t>Runs simulations of groups of players using different network types and variable users</t>
+  </si>
+  <si>
+    <t>Attempt gaming with more than 5</t>
+  </si>
+  <si>
+    <t>Create server running games not involved with their own computer while playing game</t>
+  </si>
+  <si>
+    <t>Run on different speeds of internet to detect latency issues</t>
+  </si>
+  <si>
+    <t>Polishing</t>
+  </si>
+  <si>
+    <t>Use differing display sizes on devices capable of playing the game</t>
+  </si>
+  <si>
+    <t>Assure animations, menus, and pop ups are working properly</t>
+  </si>
+  <si>
+    <t>Game Logic Testing</t>
+  </si>
+  <si>
+    <t>Ready Up Updates Server &amp; Client</t>
+  </si>
+  <si>
+    <t>End of Game Scoring</t>
+  </si>
+  <si>
+    <t>Menu to Table Integration Testing</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Due to online conversions, Ganntt chart png is also included in artifacts separately</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +393,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +421,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,17 +441,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,9 +540,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35645095144356953"/>
-          <c:y val="5.5555555555555552E-2"/>
-          <c:w val="0.60101240008351231"/>
+          <c:x val="0.19250113514291725"/>
+          <c:y val="8.7493985126859145E-2"/>
+          <c:w val="0.76170498466172731"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
       </c:layout>
@@ -397,9 +575,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'Gantt Chart'!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Single Socket Server Client</c:v>
                 </c:pt>
@@ -426,16 +604,37 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Logic with Network Implementation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Game Logic Testing</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ready Up Updates Server &amp; Client</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Card Table Animation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>End of Game Scoring</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sound</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Menu to Table Integration Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart'!$B$2:$B$10</c:f>
+              <c:f>'Gantt Chart'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43026</c:v>
                 </c:pt>
@@ -461,7 +660,28 @@
                   <c:v>43037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43041</c:v>
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,9 +714,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'Gantt Chart'!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Single Socket Server Client</c:v>
                 </c:pt>
@@ -523,16 +743,37 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Logic with Network Implementation</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Game Logic Testing</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ready Up Updates Server &amp; Client</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Card Table Animation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>End of Game Scoring</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sound</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Menu to Table Integration Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart'!$C$2:$C$10</c:f>
+              <c:f>'Gantt Chart'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -559,6 +800,27 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,17 +836,80 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="234949888"/>
-        <c:axId val="234952632"/>
+        <c:axId val="206982288"/>
+        <c:axId val="206981896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="234949888"/>
+        <c:axId val="206982288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sprint Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.2835465879265131E-3"/>
+              <c:y val="0.36289041994750654"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -616,7 +941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234952632"/>
+        <c:crossAx val="206981896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234952632"/>
+        <c:axId val="206981896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43026"/>
@@ -645,6 +970,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Start Date:</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.12726677888892582"/>
+              <c:y val="3.6302493438320212E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -676,9 +1064,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234949888"/>
+        <c:crossAx val="206982288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -722,6 +1112,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1264,15 +1655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1292,6 +1683,399 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28622</cdr:x>
+      <cdr:y>0.13333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.35584</cdr:x>
+      <cdr:y>0.32879</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="2987043" y="784862"/>
+          <a:ext cx="982978" cy="754379"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100388"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27075</cdr:x>
+      <cdr:y>0.17576</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32068</cdr:x>
+      <cdr:y>0.22879</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2933700" y="883920"/>
+          <a:ext cx="541020" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28973</cdr:x>
+      <cdr:y>0.27576</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38537</cdr:x>
+      <cdr:y>0.48788</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="3124200" y="1402081"/>
+          <a:ext cx="1066801" cy="1036320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47046</cdr:x>
+      <cdr:y>0.4803</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4782</cdr:x>
+      <cdr:y>0.52727</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="5097780" y="2415540"/>
+          <a:ext cx="83820" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4839"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47257</cdr:x>
+      <cdr:y>0.3803</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48101</cdr:x>
+      <cdr:y>0.52576</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="5120640" y="1912620"/>
+          <a:ext cx="91440" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2083"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42194</cdr:x>
+      <cdr:y>0.43182</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60267</cdr:x>
+      <cdr:y>0.68788</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4572000" y="2171700"/>
+          <a:ext cx="1958340" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51899</cdr:x>
+      <cdr:y>0.53939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62025</cdr:x>
+      <cdr:y>0.73788</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5623560" y="2712720"/>
+          <a:ext cx="1097280" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87482</cdr:x>
+      <cdr:y>0.84394</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.891</cdr:x>
+      <cdr:y>0.90455</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="28" name="Elbow Connector 27"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="9479280" y="4244340"/>
+          <a:ext cx="175260" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65963</cdr:x>
+      <cdr:y>0.58485</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80731</cdr:x>
+      <cdr:y>0.84242</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="33" name="Elbow Connector 32"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7147560" y="2941320"/>
+          <a:ext cx="1600200" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,11 +2340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,46 +2458,181 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="E21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43046</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43047</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43051</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43059</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43062</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43067</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C21:O24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1726,8 +2645,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="A2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1740,8 +2659,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1754,8 +2673,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1768,8 +2687,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
+      <c r="A5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1782,8 +2701,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1796,8 +2715,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1810,8 +2729,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1824,11 +2743,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="A9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1838,11 +2757,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>34</v>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1852,11 +2771,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1865,17 +2784,116 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,209 +2904,559 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14">
+      <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
+      <c r="D36" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
+      <c r="D48" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="5">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="5">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
+      <c r="D60" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
